--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>253.253359619092</v>
+        <v>625.9248441149808</v>
       </c>
       <c r="R2">
-        <v>253.253359619092</v>
+        <v>5633.323597034828</v>
       </c>
       <c r="S2">
-        <v>0.0009664796368124968</v>
+        <v>0.002152146123241158</v>
       </c>
       <c r="T2">
-        <v>0.0009664796368124968</v>
+        <v>0.002152146123241159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>1288.074794699085</v>
+        <v>2061.818586417639</v>
       </c>
       <c r="R3">
-        <v>1288.074794699085</v>
+        <v>18556.36727775876</v>
       </c>
       <c r="S3">
-        <v>0.004915623080540782</v>
+        <v>0.007089245488984235</v>
       </c>
       <c r="T3">
-        <v>0.004915623080540782</v>
+        <v>0.007089245488984235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>1451.503583742573</v>
+        <v>2460.573893230643</v>
       </c>
       <c r="R4">
-        <v>1451.503583742573</v>
+        <v>22145.16503907578</v>
       </c>
       <c r="S4">
-        <v>0.005539309166747193</v>
+        <v>0.008460304164395747</v>
       </c>
       <c r="T4">
-        <v>0.005539309166747193</v>
+        <v>0.008460304164395747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>646.9556010053975</v>
+        <v>1036.449105459716</v>
       </c>
       <c r="R5">
-        <v>646.9556010053975</v>
+        <v>9328.041949137449</v>
       </c>
       <c r="S5">
-        <v>0.002468948152292824</v>
+        <v>0.003563670535247425</v>
       </c>
       <c r="T5">
-        <v>0.002468948152292824</v>
+        <v>0.003563670535247426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>16777.50352206796</v>
+        <v>25945.52530099713</v>
       </c>
       <c r="R6">
-        <v>16777.50352206796</v>
+        <v>233509.7277089742</v>
       </c>
       <c r="S6">
-        <v>0.06402724739769343</v>
+        <v>0.08920969061541031</v>
       </c>
       <c r="T6">
-        <v>0.06402724739769343</v>
+        <v>0.08920969061541031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>85332.25161259301</v>
+        <v>85465.47848824183</v>
       </c>
       <c r="R7">
-        <v>85332.25161259301</v>
+        <v>769189.3063941764</v>
       </c>
       <c r="S7">
-        <v>0.3256497116996753</v>
+        <v>0.2938598777933026</v>
       </c>
       <c r="T7">
-        <v>0.3256497116996753</v>
+        <v>0.2938598777933026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>96159.06586654186</v>
+        <v>101994.4851239381</v>
       </c>
       <c r="R8">
-        <v>96159.06586654186</v>
+        <v>917950.3661154424</v>
       </c>
       <c r="S8">
-        <v>0.3669676058580437</v>
+        <v>0.3506923200369698</v>
       </c>
       <c r="T8">
-        <v>0.3669676058580437</v>
+        <v>0.3506923200369698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>42859.45067348822</v>
+        <v>42962.37278602264</v>
       </c>
       <c r="R9">
-        <v>42859.45067348822</v>
+        <v>386661.3550742038</v>
       </c>
       <c r="S9">
-        <v>0.1635626330217232</v>
+        <v>0.1477194984446011</v>
       </c>
       <c r="T9">
-        <v>0.1635626330217232</v>
+        <v>0.1477194984446011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>361.7545755906934</v>
+        <v>1550.711527283562</v>
       </c>
       <c r="R10">
-        <v>361.7545755906934</v>
+        <v>13956.40374555205</v>
       </c>
       <c r="S10">
-        <v>0.001380548046264871</v>
+        <v>0.005331882626303978</v>
       </c>
       <c r="T10">
-        <v>0.001380548046264871</v>
+        <v>0.005331882626303979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>1839.924064131978</v>
+        <v>5108.098646645184</v>
       </c>
       <c r="R11">
-        <v>1839.924064131978</v>
+        <v>45972.88781980666</v>
       </c>
       <c r="S11">
-        <v>0.007021621130473605</v>
+        <v>0.01756341005293502</v>
       </c>
       <c r="T11">
-        <v>0.007021621130473605</v>
+        <v>0.01756341005293502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>2073.370571252948</v>
+        <v>6096.003914592699</v>
       </c>
       <c r="R12">
-        <v>2073.370571252948</v>
+        <v>54864.0352313343</v>
       </c>
       <c r="S12">
-        <v>0.007912512748878072</v>
+        <v>0.02096017008336481</v>
       </c>
       <c r="T12">
-        <v>0.007912512748878072</v>
+        <v>0.02096017008336481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>924.1304803211228</v>
+        <v>2567.774055288774</v>
       </c>
       <c r="R13">
-        <v>924.1304803211228</v>
+        <v>23109.96649759896</v>
       </c>
       <c r="S13">
-        <v>0.003526718430631967</v>
+        <v>0.008828895402390846</v>
       </c>
       <c r="T13">
-        <v>0.003526718430631967</v>
+        <v>0.008828895402390848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>839.7992211753818</v>
+        <v>1311.840777194925</v>
       </c>
       <c r="R14">
-        <v>839.7992211753818</v>
+        <v>11806.56699475432</v>
       </c>
       <c r="S14">
-        <v>0.00320488876237523</v>
+        <v>0.004510562361431203</v>
       </c>
       <c r="T14">
-        <v>0.00320488876237523</v>
+        <v>0.004510562361431204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>4271.312376787059</v>
+        <v>4321.249942819328</v>
       </c>
       <c r="R15">
-        <v>4271.312376787059</v>
+        <v>38891.24948537395</v>
       </c>
       <c r="S15">
-        <v>0.01630042120996476</v>
+        <v>0.01485795203598967</v>
       </c>
       <c r="T15">
-        <v>0.01630042120996476</v>
+        <v>0.01485795203598967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>4813.249391809427</v>
+        <v>5156.978827075083</v>
       </c>
       <c r="R16">
-        <v>4813.249391809427</v>
+        <v>46412.80944367575</v>
       </c>
       <c r="S16">
-        <v>0.01836859156016998</v>
+        <v>0.01773147702104567</v>
       </c>
       <c r="T16">
-        <v>0.01836859156016998</v>
+        <v>0.01773147702104567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>2145.33307939748</v>
+        <v>2172.235553218421</v>
       </c>
       <c r="R17">
-        <v>2145.33307939748</v>
+        <v>19550.11997896578</v>
       </c>
       <c r="S17">
-        <v>0.008187140097712658</v>
+        <v>0.007468897214386423</v>
       </c>
       <c r="T17">
-        <v>0.008187140097712658</v>
+        <v>0.007468897214386424</v>
       </c>
     </row>
   </sheetData>
